--- a/Review/PO_SAG_Change_Req_WEB_Review.xlsx
+++ b/Review/PO_SAG_Change_Req_WEB_Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\SAG\Change-Requests\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34484BFD-6E9A-4587-B72E-3AB67C2A6B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C7FD5A-5E75-47A1-AF0A-93B97AFB0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Entry Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>all details aren’t listed as points</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -422,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -488,7 +491,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
